--- a/data/trans_orig/P2C_R1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4791</v>
+        <v>4621</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002297976002911035</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01340489982107887</v>
+        <v>0.01292759692316791</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>6196</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2276</v>
+        <v>2027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14332</v>
+        <v>14300</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009126714082380081</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003352591338845761</v>
+        <v>0.002986336440676921</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02111197344576865</v>
+        <v>0.02106457431132907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>7017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2872</v>
+        <v>2750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15119</v>
+        <v>14071</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006771350501714179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002770994319614782</v>
+        <v>0.002653523372717969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01458912064058717</v>
+        <v>0.01357843949025156</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>356621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>352651</v>
+        <v>352821</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>357442</v>
@@ -824,7 +824,7 @@
         <v>0.997702023997089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9865951001789205</v>
+        <v>0.9870724030768325</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>672669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>664533</v>
+        <v>664565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>676589</v>
+        <v>676838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9908732859176199</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9788880265542313</v>
+        <v>0.9789354256886709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9966474086611542</v>
+        <v>0.9970136635593231</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1004</v>
@@ -857,19 +857,19 @@
         <v>1029290</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1021188</v>
+        <v>1022236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1033435</v>
+        <v>1033557</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9932286494982858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9854108793594129</v>
+        <v>0.9864215605097484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9972290056803852</v>
+        <v>0.997346476627282</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5737</v>
+        <v>4535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001587018186696216</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.00894187318122836</v>
+        <v>0.007069244371642509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9970</v>
+        <v>9297</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003840899293968266</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01376640313671727</v>
+        <v>0.01283696964597489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>3800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10677</v>
+        <v>12146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002782163402614119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007491908094686743</v>
+        <v>0.0007452405710174726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007817241511115861</v>
+        <v>0.008893104799708316</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>640543</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>635824</v>
+        <v>637026</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>641561</v>
@@ -1041,7 +1041,7 @@
         <v>0.9984129818133037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.99105812681877</v>
+        <v>0.9929307556283576</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>721439</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>714251</v>
+        <v>714924</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>724221</v>
@@ -1062,7 +1062,7 @@
         <v>0.9961591007060318</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9862335968632823</v>
+        <v>0.9871630303540251</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>1361983</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1355106</v>
+        <v>1353637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1364760</v>
+        <v>1364765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9972178365973858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9921827584888837</v>
+        <v>0.9911068952002914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992508091905313</v>
+        <v>0.9992547594289825</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2953</v>
+        <v>2861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17672</v>
+        <v>16611</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01157796453145823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004590201284419333</v>
+        <v>0.004448432502625038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02747422455343233</v>
+        <v>0.02582369418744947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3003</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8991</v>
+        <v>8908</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004758279635862553</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001557185984682263</v>
+        <v>0.001559040725760449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01424722680147902</v>
+        <v>0.01411722992781093</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1220,19 +1220,19 @@
         <v>10450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4853</v>
+        <v>4648</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20744</v>
+        <v>21365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008200751534081126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003808521584100576</v>
+        <v>0.003647532380511856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01627943477612234</v>
+        <v>0.0167667976645635</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>635783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>625558</v>
+        <v>626619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>640277</v>
+        <v>640369</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9884220354685418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9725257754465675</v>
+        <v>0.9741763058125501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954097987155807</v>
+        <v>0.9955515674973749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>617</v>
@@ -1270,19 +1270,19 @@
         <v>628033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>622045</v>
+        <v>622128</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>630053</v>
+        <v>630052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9952417203641375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9857527731985209</v>
+        <v>0.9858827700721891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9984428140153176</v>
+        <v>0.9984409592742395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1239</v>
@@ -1291,19 +1291,19 @@
         <v>1263816</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1253522</v>
+        <v>1252901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1269413</v>
+        <v>1269618</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9917992484659188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9837205652238787</v>
+        <v>0.9832332023354372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9961914784158995</v>
+        <v>0.9963524676194883</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6066</v>
+        <v>6140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007319335744764871</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02509705355817934</v>
+        <v>0.02540271357958633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5745</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2272</v>
+        <v>2237</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12792</v>
+        <v>12729</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02603297271592396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01029702449718051</v>
+        <v>0.01013485238707511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05796505806603677</v>
+        <v>0.05767942241089648</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1437,19 +1437,19 @@
         <v>7514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3088</v>
+        <v>3173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15328</v>
+        <v>15347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0162508779590126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006679291234581939</v>
+        <v>0.006862303830283955</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03315142335926633</v>
+        <v>0.03319173487152182</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>239926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235629</v>
+        <v>235555</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>241695</v>
@@ -1475,7 +1475,7 @@
         <v>0.9926806642552352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9749029464418207</v>
+        <v>0.9745972864204137</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>214935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>207888</v>
+        <v>207951</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218408</v>
+        <v>218443</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.973967027284076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9420349419339636</v>
+        <v>0.9423205775891037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9897029755028195</v>
+        <v>0.989865147612925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>449</v>
@@ -1508,19 +1508,19 @@
         <v>454861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447047</v>
+        <v>447028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>459287</v>
+        <v>459202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9837491220409874</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.966848576640734</v>
+        <v>0.9668082651284786</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.993320708765418</v>
+        <v>0.9931376961697161</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>11056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5491</v>
+        <v>5752</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20264</v>
+        <v>21022</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005868536348582876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002914799637797017</v>
+        <v>0.003053197868768689</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01075642186069151</v>
+        <v>0.01115868522432053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1633,19 +1633,19 @@
         <v>17725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10247</v>
+        <v>10686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28812</v>
+        <v>29458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007861027380363948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004544313943475993</v>
+        <v>0.004739294674345575</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01277816637639991</v>
+        <v>0.01306471629049006</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1654,19 +1654,19 @@
         <v>28781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18599</v>
+        <v>19396</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43198</v>
+        <v>43178</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006954055809812103</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004493778821224857</v>
+        <v>0.004686425081220187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01043739491623927</v>
+        <v>0.01043269051036983</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1872873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1863665</v>
+        <v>1862907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1878438</v>
+        <v>1878177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9941314636514171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9892435781393084</v>
+        <v>0.9888413147756793</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9970852003622029</v>
+        <v>0.9969468021312313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2174</v>
@@ -1704,19 +1704,19 @@
         <v>2237077</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2225990</v>
+        <v>2225344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2244555</v>
+        <v>2244116</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.992138972619636</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9872218336235995</v>
+        <v>0.9869352837095093</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9954556860565239</v>
+        <v>0.9952607053256544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4022</v>
@@ -1725,19 +1725,19 @@
         <v>4109949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4095532</v>
+        <v>4095552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4120131</v>
+        <v>4119334</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9930459441901879</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9895626050837605</v>
+        <v>0.9895673094896297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.995506221178775</v>
+        <v>0.9953135749187798</v>
       </c>
     </row>
     <row r="18">
@@ -2082,19 +2082,19 @@
         <v>3102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8317</v>
+        <v>8353</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003825302239859013</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001178561411319507</v>
+        <v>0.001183531975237938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01025725302004196</v>
+        <v>0.01030201008893982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2103,19 +2103,19 @@
         <v>3102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8372</v>
+        <v>8534</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002074716409468673</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006395291241873544</v>
+        <v>0.0006379509439421196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005599840695492025</v>
+        <v>0.005708561581606303</v>
       </c>
     </row>
     <row r="5">
@@ -2145,19 +2145,19 @@
         <v>807722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>802507</v>
+        <v>802471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>809868</v>
+        <v>809864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.996174697760141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9897427469799581</v>
+        <v>0.9896979899110602</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9988214385886806</v>
+        <v>0.9988164680247621</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1390</v>
@@ -2166,19 +2166,19 @@
         <v>1491872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1486602</v>
+        <v>1486440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1494018</v>
+        <v>1494020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9979252835905313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9944001593045079</v>
+        <v>0.9942914384183937</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9993604708758127</v>
+        <v>0.999362049056058</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>3060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8368</v>
+        <v>8346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004846519130008995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001471494034269637</v>
+        <v>0.001462774539823425</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01325187351688604</v>
+        <v>0.0132167226572395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2291,19 +2291,19 @@
         <v>9102</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4157</v>
+        <v>3808</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18852</v>
+        <v>17766</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01150432116370108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005254750283286989</v>
+        <v>0.004812769230982329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02382836155438157</v>
+        <v>0.02245567527335499</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -2312,19 +2312,19 @@
         <v>12162</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6773</v>
+        <v>6172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21481</v>
+        <v>21786</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008549102109275951</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004760655069734436</v>
+        <v>0.004338860161567798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01509958419070217</v>
+        <v>0.01531408256251231</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>628395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>623087</v>
+        <v>623109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>630526</v>
+        <v>630531</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995153480869991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9867481264831145</v>
+        <v>0.9867832773427605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9985285059657304</v>
+        <v>0.9985372254601765</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>734</v>
@@ -2362,19 +2362,19 @@
         <v>782046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>772296</v>
+        <v>773382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>786991</v>
+        <v>787340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.988495678836299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9761716384456184</v>
+        <v>0.977544324726645</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947452497167131</v>
+        <v>0.9951872307690177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1326</v>
@@ -2383,19 +2383,19 @@
         <v>1410442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1401123</v>
+        <v>1400818</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1415831</v>
+        <v>1416432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.991450897890724</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9849004158092978</v>
+        <v>0.9846859174374879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9952393449302656</v>
+        <v>0.9956611398384322</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>5833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2761</v>
+        <v>2011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13536</v>
+        <v>11851</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01117372404553484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005289910021042724</v>
+        <v>0.003853026420861873</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02593067845417119</v>
+        <v>0.02270387313402036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2508,19 +2508,19 @@
         <v>6066</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2919</v>
+        <v>2089</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12285</v>
+        <v>13359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009818426656615784</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004724582210696965</v>
+        <v>0.003380963095283065</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01988256149943337</v>
+        <v>0.02162098700454702</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2529,19 +2529,19 @@
         <v>11899</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5995</v>
+        <v>6138</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20973</v>
+        <v>19850</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0104390877279847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00525902839835677</v>
+        <v>0.005385189531845612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0183994646193641</v>
+        <v>0.01741444230486285</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>516168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508465</v>
+        <v>510150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519240</v>
+        <v>519990</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9888262759544652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9740693215458288</v>
+        <v>0.9772961268659799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9947100899789572</v>
+        <v>0.9961469735791381</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>573</v>
@@ -2579,19 +2579,19 @@
         <v>611793</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>605574</v>
+        <v>604500</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>614940</v>
+        <v>615770</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9901815733433842</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9801174385005665</v>
+        <v>0.9783790129954528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9952754177893031</v>
+        <v>0.996619036904717</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1056</v>
@@ -2600,19 +2600,19 @@
         <v>1127961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1118887</v>
+        <v>1120010</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1133865</v>
+        <v>1133722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9895609122720153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.981600535380636</v>
+        <v>0.9825855576951371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9947409716016432</v>
+        <v>0.9946148104681545</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>5848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1962</v>
+        <v>1928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13450</v>
+        <v>13984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02029309372909347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00680675470933381</v>
+        <v>0.006689679923646798</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04666808815109588</v>
+        <v>0.04852100847345196</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -2725,19 +2725,19 @@
         <v>10350</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5123</v>
+        <v>4433</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20840</v>
+        <v>19282</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03608108652950228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01785968168126693</v>
+        <v>0.01545274582238261</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0726529322609783</v>
+        <v>0.0672212121752734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -2746,19 +2746,19 @@
         <v>16198</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9449</v>
+        <v>8499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26992</v>
+        <v>27701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0281685066028777</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01643138475561442</v>
+        <v>0.01477921912187024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04693913356098511</v>
+        <v>0.04817102548131827</v>
       </c>
     </row>
     <row r="14">
@@ -2775,19 +2775,19 @@
         <v>282351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274749</v>
+        <v>274215</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>286237</v>
+        <v>286271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9797069062709065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9533319118489041</v>
+        <v>0.9514789915265479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931932452906661</v>
+        <v>0.9933103200763532</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>251</v>
@@ -2796,19 +2796,19 @@
         <v>276495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266005</v>
+        <v>267563</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>281722</v>
+        <v>282412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9639189134704977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9273470677390218</v>
+        <v>0.9327787878247266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9821403183187331</v>
+        <v>0.9845472541776173</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>507</v>
@@ -2817,19 +2817,19 @@
         <v>558847</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>548053</v>
+        <v>547344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>565596</v>
+        <v>566546</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9718314933971223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9530608664390149</v>
+        <v>0.9518289745186816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9835686152443855</v>
+        <v>0.9852207808781297</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>14742</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8602</v>
+        <v>7953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25452</v>
+        <v>24522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006934551997604533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004046555201699867</v>
+        <v>0.003741014929925458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01197273808996371</v>
+        <v>0.011535507039771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -2942,19 +2942,19 @@
         <v>28619</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18352</v>
+        <v>18318</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42214</v>
+        <v>40956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01141725494438474</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007321064199847909</v>
+        <v>0.007307879437068458</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01684075091043639</v>
+        <v>0.01633866562796132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -2963,19 +2963,19 @@
         <v>43361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30114</v>
+        <v>31340</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59648</v>
+        <v>59384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009360181696143399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006500597594925116</v>
+        <v>0.006765218392620633</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01287608170166562</v>
+        <v>0.01281908644797026</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>2111064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2100354</v>
+        <v>2101284</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2117204</v>
+        <v>2117853</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9930654480023955</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9880272619100362</v>
+        <v>0.9884644929602289</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959534447983002</v>
+        <v>0.9962589850700745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2309</v>
@@ -3013,19 +3013,19 @@
         <v>2478058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2464463</v>
+        <v>2465721</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2488325</v>
+        <v>2488359</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9885827450556153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9831592490895633</v>
+        <v>0.9836613343720388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9926789358001521</v>
+        <v>0.9926921205629319</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4279</v>
@@ -3034,19 +3034,19 @@
         <v>4589122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4572835</v>
+        <v>4573099</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4602369</v>
+        <v>4601143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9906398183038566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9871239182983343</v>
+        <v>0.9871809135520294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9934994024050748</v>
+        <v>0.9932347816073791</v>
       </c>
     </row>
     <row r="18">
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8823</v>
+        <v>7674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003434576489382143</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01388001197835343</v>
+        <v>0.01207188379124396</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -3399,19 +3399,19 @@
         <v>6482</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2925</v>
+        <v>2410</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13441</v>
+        <v>13462</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007462920812459175</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003368023801258171</v>
+        <v>0.002774915946778073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01547488182905619</v>
+        <v>0.01549873197334271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3420,19 +3420,19 @@
         <v>8665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4260</v>
+        <v>4136</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16933</v>
+        <v>16947</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005760580432263768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002831720167040586</v>
+        <v>0.002749820506728959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01125687218065684</v>
+        <v>0.01126573609442409</v>
       </c>
     </row>
     <row r="5">
@@ -3449,7 +3449,7 @@
         <v>633507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>626867</v>
+        <v>628016</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>635690</v>
@@ -3458,7 +3458,7 @@
         <v>0.9965654235106178</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9861199880216465</v>
+        <v>0.9879281162087561</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3470,19 +3470,19 @@
         <v>862098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>855139</v>
+        <v>855118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>865655</v>
+        <v>866170</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9925370791875409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9845251181709438</v>
+        <v>0.9845012680266574</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9966319761987419</v>
+        <v>0.997225084053222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1418</v>
@@ -3491,19 +3491,19 @@
         <v>1495605</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1487337</v>
+        <v>1487323</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1500010</v>
+        <v>1500134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9942394195677362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9887431278193433</v>
+        <v>0.9887342639055761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971682798329594</v>
+        <v>0.9972501794932711</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>5622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13142</v>
+        <v>13406</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01089352654654507</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003934051202191792</v>
+        <v>0.003899754286272753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02546529381383558</v>
+        <v>0.02597774001348414</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -3616,19 +3616,19 @@
         <v>4927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1000</v>
+        <v>1352</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12341</v>
+        <v>11628</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007311565005495375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001484586954944436</v>
+        <v>0.002006762468978187</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0183128092649846</v>
+        <v>0.01725522959522221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -3637,19 +3637,19 @@
         <v>10549</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5627</v>
+        <v>4558</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21680</v>
+        <v>18490</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008865046206069767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004729147299790469</v>
+        <v>0.003830002369727126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0182189977584798</v>
+        <v>0.01553857439290094</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>510454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>502934</v>
+        <v>502670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514046</v>
+        <v>514063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9891064734534549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9745347061861647</v>
+        <v>0.974022259986516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9960659487978083</v>
+        <v>0.9961002457137272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>630</v>
@@ -3687,19 +3687,19 @@
         <v>668946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>661532</v>
+        <v>662245</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>672873</v>
+        <v>672521</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9926884349945047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9816871907350151</v>
+        <v>0.982744770404778</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9985154130450555</v>
+        <v>0.9979932375310219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1137</v>
@@ -3708,19 +3708,19 @@
         <v>1179400</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1168269</v>
+        <v>1171459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1184322</v>
+        <v>1185391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9911349537939302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9817810022415179</v>
+        <v>0.9844614256070986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9952708527002095</v>
+        <v>0.9961699976302728</v>
       </c>
     </row>
     <row r="9">
@@ -3812,19 +3812,19 @@
         <v>7640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3797</v>
+        <v>3062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14563</v>
+        <v>14623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01625860671107382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008079960433989774</v>
+        <v>0.006515856006387472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03098996389588841</v>
+        <v>0.03111777514629175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3833,19 +3833,19 @@
         <v>7955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3898</v>
+        <v>3871</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15736</v>
+        <v>15709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01660642921759759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008138415791429862</v>
+        <v>0.008080659342133872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03285089274643592</v>
+        <v>0.03279508797341994</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3854,19 +3854,19 @@
         <v>15595</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9106</v>
+        <v>9463</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25734</v>
+        <v>25463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01643418600172548</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009596398235234791</v>
+        <v>0.009972231134438523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0271185875872458</v>
+        <v>0.02683356667634321</v>
       </c>
     </row>
     <row r="11">
@@ -3883,19 +3883,19 @@
         <v>462276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455353</v>
+        <v>455293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>466119</v>
+        <v>466854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9837413932889262</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9690100361041115</v>
+        <v>0.968882224853708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9919200395660102</v>
+        <v>0.9934841439936125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>439</v>
@@ -3904,19 +3904,19 @@
         <v>471062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>463281</v>
+        <v>463308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475119</v>
+        <v>475146</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9833935707824024</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9671491072535642</v>
+        <v>0.9672049120265801</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9918615842085703</v>
+        <v>0.9919193406578661</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>887</v>
@@ -3925,19 +3925,19 @@
         <v>933338</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>923199</v>
+        <v>923470</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>939827</v>
+        <v>939470</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9835658139982745</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9728814124127542</v>
+        <v>0.9731664333236567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9904036017647653</v>
+        <v>0.9900277688655615</v>
       </c>
     </row>
     <row r="12">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7484</v>
+        <v>6818</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00837769224088163</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02885605526922321</v>
+        <v>0.02628637231890777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4053,16 +4053,16 @@
         <v>1024</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8538</v>
+        <v>9217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01048167027157204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003381479811774856</v>
+        <v>0.003379316252381072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0281865723298887</v>
+        <v>0.03042676772846762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -4071,19 +4071,19 @@
         <v>5348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2075</v>
+        <v>2084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11643</v>
+        <v>11615</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009511160469509472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00369068825982388</v>
+        <v>0.00370700751212023</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02070609504677596</v>
+        <v>0.02065631432652874</v>
       </c>
     </row>
     <row r="14">
@@ -4100,7 +4100,7 @@
         <v>257192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>251881</v>
+        <v>252547</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>259365</v>
@@ -4109,7 +4109,7 @@
         <v>0.9916223077591184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9711439447307768</v>
+        <v>0.9737136276810923</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>299740</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294377</v>
+        <v>293698</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>301891</v>
@@ -4130,10 +4130,10 @@
         <v>0.9895183297284279</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9718134276701114</v>
+        <v>0.969573232271532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9966185201882252</v>
+        <v>0.9966206837476189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>518</v>
@@ -4142,19 +4142,19 @@
         <v>556932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>550637</v>
+        <v>550665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>560205</v>
+        <v>560196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9904888395304905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.979293904953224</v>
+        <v>0.9793436856734714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9963093117401761</v>
+        <v>0.9962929924878798</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>17618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10364</v>
+        <v>10387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27022</v>
+        <v>27424</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009366203963754434</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005509519701005713</v>
+        <v>0.005521714612651732</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01436551575714503</v>
+        <v>0.01457885724138618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4267,19 +4267,19 @@
         <v>22539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14381</v>
+        <v>14353</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34501</v>
+        <v>33907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009696771357601695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006186811627838453</v>
+        <v>0.006174787483085878</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0148431569959076</v>
+        <v>0.01458771682484131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -4288,19 +4288,19 @@
         <v>40157</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28614</v>
+        <v>29017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56097</v>
+        <v>53936</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009548911935992133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006804135904757683</v>
+        <v>0.006899911014497707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01333921291957212</v>
+        <v>0.01282538716335978</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>1863429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1854025</v>
+        <v>1853623</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1870683</v>
+        <v>1870660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9906337960362456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9856344842428549</v>
+        <v>0.9854211427586137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9944904802989942</v>
+        <v>0.9944782853873482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2151</v>
@@ -4338,19 +4338,19 @@
         <v>2301846</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2289884</v>
+        <v>2290478</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2310004</v>
+        <v>2310032</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9903032286423983</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9851568430040925</v>
+        <v>0.9854122831751587</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9938131883721616</v>
+        <v>0.9938252125169141</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3960</v>
@@ -4359,19 +4359,19 @@
         <v>4165275</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4149335</v>
+        <v>4151496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4176818</v>
+        <v>4176415</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9904510880640078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9866607870804277</v>
+        <v>0.9871746128366401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9931958640952422</v>
+        <v>0.9931000889855023</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>16817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10062</v>
+        <v>10295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25405</v>
+        <v>25532</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1352266691007476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08090640042243391</v>
+        <v>0.08277988464292617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2042798091895905</v>
+        <v>0.2053021178218547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -4724,19 +4724,19 @@
         <v>38294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29543</v>
+        <v>30650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47649</v>
+        <v>47527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1945742694553098</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.150109947065644</v>
+        <v>0.1557334246524363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2421098159977363</v>
+        <v>0.2414871389671767</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -4745,19 +4745,19 @@
         <v>55111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44414</v>
+        <v>44495</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66853</v>
+        <v>67808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.171594017558401</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1382883253312095</v>
+        <v>0.1385399874202067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2081555857085642</v>
+        <v>0.2111288939366641</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>107545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98957</v>
+        <v>98830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114300</v>
+        <v>114067</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8647733308992526</v>
+        <v>0.8647733308992523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7957201908104096</v>
+        <v>0.7946978821781452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9190935995775661</v>
+        <v>0.9172201153570737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>212</v>
@@ -4795,19 +4795,19 @@
         <v>158514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149159</v>
+        <v>149281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>167265</v>
+        <v>166158</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8054257305446902</v>
+        <v>0.8054257305446901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7578901840022636</v>
+        <v>0.7585128610328231</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.849890052934356</v>
+        <v>0.8442665753475637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -4816,19 +4816,19 @@
         <v>266059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254317</v>
+        <v>253362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>276756</v>
+        <v>276675</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8284059824415991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7918444142914356</v>
+        <v>0.7888711060633359</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8617116746687904</v>
+        <v>0.861460012579792</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>22035</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15104</v>
+        <v>15474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30050</v>
+        <v>31738</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1106777612079592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07586310272113814</v>
+        <v>0.0777199517300068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1509323226753928</v>
+        <v>0.1594120305808931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -4941,19 +4941,19 @@
         <v>41272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32198</v>
+        <v>32326</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49987</v>
+        <v>50506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1407445518084072</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1098029375475922</v>
+        <v>0.1102375316742941</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1704661280459978</v>
+        <v>0.1722353180039029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -4962,19 +4962,19 @@
         <v>63307</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52176</v>
+        <v>52599</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75618</v>
+        <v>76325</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1285858321677142</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1059784526227464</v>
+        <v>0.1068374454408555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1535921346552768</v>
+        <v>0.1550278004863036</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>177059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>169044</v>
+        <v>167356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183990</v>
+        <v>183620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8893222387920408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8490676773246081</v>
+        <v>0.8405879694191066</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9241368972788618</v>
+        <v>0.9222800482699931</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -5012,19 +5012,19 @@
         <v>251965</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>243250</v>
+        <v>242731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>261039</v>
+        <v>260911</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8592554481915928</v>
+        <v>0.8592554481915927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8295338719540022</v>
+        <v>0.8277646819960971</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8901970624524078</v>
+        <v>0.8897624683257055</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>525</v>
@@ -5033,19 +5033,19 @@
         <v>429024</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>416713</v>
+        <v>416006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>440155</v>
+        <v>439732</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8714141678322859</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8464078653447232</v>
+        <v>0.8449721995136965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8940215473772536</v>
+        <v>0.8931625545591445</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>22662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14492</v>
+        <v>14622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36766</v>
+        <v>35967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1509279982809245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0965161597683639</v>
+        <v>0.09738591866410573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.244865820350683</v>
+        <v>0.2395406985310932</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -5158,19 +5158,19 @@
         <v>31272</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24071</v>
+        <v>23528</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40216</v>
+        <v>39855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1574690085492192</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1212110121567702</v>
+        <v>0.1184733033611434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2025056720925612</v>
+        <v>0.2006881231295615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -5179,19 +5179,19 @@
         <v>53933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42125</v>
+        <v>42446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68536</v>
+        <v>67452</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1546528055078398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1207936491804377</v>
+        <v>0.1217120402613873</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1965244413351645</v>
+        <v>0.1934160328607116</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>127486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>113382</v>
+        <v>114181</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135656</v>
+        <v>135526</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8490720017190754</v>
+        <v>0.8490720017190755</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7551341796493175</v>
+        <v>0.7604593014689071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9034838402316363</v>
+        <v>0.9026140813358944</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -5229,19 +5229,19 @@
         <v>167319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158375</v>
+        <v>158736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>174520</v>
+        <v>175063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8425309914507807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7974943279074389</v>
+        <v>0.7993118768704385</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.87878898784323</v>
+        <v>0.8815266966388566</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>352</v>
@@ -5250,19 +5250,19 @@
         <v>294806</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>280203</v>
+        <v>281287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>306614</v>
+        <v>306293</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8453471944921601</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8034755586648352</v>
+        <v>0.8065839671392883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8792063508195623</v>
+        <v>0.8782879597386126</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>16313</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10430</v>
+        <v>10432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23632</v>
+        <v>23478</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2054131391214528</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1313427058372698</v>
+        <v>0.1313668685585433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.297575246093286</v>
+        <v>0.2956449373284942</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -5375,19 +5375,19 @@
         <v>17103</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12160</v>
+        <v>12152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23094</v>
+        <v>23464</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1826654711937986</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1298745132829459</v>
+        <v>0.1297918044505251</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2466601434942539</v>
+        <v>0.250603570975994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -5396,19 +5396,19 @@
         <v>33415</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25758</v>
+        <v>24829</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43183</v>
+        <v>42736</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1931049983326784</v>
+        <v>0.1931049983326785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1488521453587922</v>
+        <v>0.1434851135776567</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2495529640773732</v>
+        <v>0.2469718019968538</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>63101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55782</v>
+        <v>55936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68984</v>
+        <v>68982</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7945868608785474</v>
+        <v>0.7945868608785475</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7024247539067142</v>
+        <v>0.7043550626715064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8686572941627286</v>
+        <v>0.8686331314414575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -5446,19 +5446,19 @@
         <v>76525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70534</v>
+        <v>70164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81468</v>
+        <v>81476</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8173345288062014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7533398565057461</v>
+        <v>0.7493964290240062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.870125486717054</v>
+        <v>0.870208195549475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>174</v>
@@ -5467,19 +5467,19 @@
         <v>139627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>129859</v>
+        <v>130306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>147284</v>
+        <v>148213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8068950016673215</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7504470359226271</v>
+        <v>0.7530281980031467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8511478546412079</v>
+        <v>0.8565148864223434</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>77826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63233</v>
+        <v>61632</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96948</v>
+        <v>94054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1407305874459141</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1143416164953826</v>
+        <v>0.1114465804196601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1753066432348411</v>
+        <v>0.1700751284308716</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -5592,19 +5592,19 @@
         <v>127940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112811</v>
+        <v>113669</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144115</v>
+        <v>145056</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1635507031794483</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1442105695676815</v>
+        <v>0.145308037001927</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.184227722010212</v>
+        <v>0.1854305703965962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>345</v>
@@ -5613,19 +5613,19 @@
         <v>205766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>182805</v>
+        <v>182528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229638</v>
+        <v>229375</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1540995762169831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1369037808492792</v>
+        <v>0.1366960280380659</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1719770619045436</v>
+        <v>0.1717804281788824</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>475191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456069</v>
+        <v>458963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>489784</v>
+        <v>491385</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8592694125540857</v>
+        <v>0.8592694125540861</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8246933567651593</v>
+        <v>0.8299248715691284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8856583835046177</v>
+        <v>0.8885534195803402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>903</v>
@@ -5663,19 +5663,19 @@
         <v>654324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>638149</v>
+        <v>637208</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>669453</v>
+        <v>668595</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8364492968205516</v>
+        <v>0.8364492968205517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8157722779897879</v>
+        <v>0.8145694296034038</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.855789430432318</v>
+        <v>0.8546919629980733</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1362</v>
@@ -5684,19 +5684,19 @@
         <v>1129516</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1105644</v>
+        <v>1105907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1152477</v>
+        <v>1152754</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8459004237830171</v>
+        <v>0.8459004237830168</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8280229380954568</v>
+        <v>0.8282195718211176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8630962191507214</v>
+        <v>0.8633039719619341</v>
       </c>
     </row>
     <row r="18">
